--- a/Data/Output/ResultOfOCR.xlsx
+++ b/Data/Output/ResultOfOCR.xlsx
@@ -40,25 +40,25 @@
     <x:t>Total Due</x:t>
   </x:si>
   <x:si>
+    <x:t>284213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aenean LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9778.40</x:t>
+  </x:si>
+  <x:si>
     <x:t>284221</x:t>
   </x:si>
   <x:si>
     <x:t>2019-06-20</x:t>
   </x:si>
   <x:si>
-    <x:t>Aenean LLC</x:t>
-  </x:si>
-  <x:si>
     <x:t>6300.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>284228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-06-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1800.00</x:t>
   </x:si>
   <x:si>
     <x:t>284232</x:t>

--- a/Data/Output/ResultOfOCR.xlsx
+++ b/Data/Output/ResultOfOCR.xlsx
@@ -61,6 +61,15 @@
     <x:t>6300.00</x:t>
   </x:si>
   <x:si>
+    <x:t>284228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1800.00</x:t>
+  </x:si>
+  <x:si>
     <x:t>284232</x:t>
   </x:si>
   <x:si>
@@ -68,6 +77,15 @@
   </x:si>
   <x:si>
     <x:t>1009.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4139.60</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -467,6 +485,34 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
